--- a/analysis/csv files/graphs_v2/graph-1-mfi.xlsx
+++ b/analysis/csv files/graphs_v2/graph-1-mfi.xlsx
@@ -6,49 +6,42 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="by-mfi-ahs" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="by-mfi-acs" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="by-mfi-acs" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">group</t>
   </si>
   <si>
-    <t xml:space="preserve">estimate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">key_order</t>
+    <t xml:space="preserve">&lt;30%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-50%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50-80%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIAN alone</t>
   </si>
   <si>
     <t xml:space="preserve">Asian alone</t>
   </si>
   <si>
-    <t xml:space="preserve">MFI30</t>
+    <t xml:space="preserve">Black or African American alone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NHPI alone</t>
   </si>
   <si>
     <t xml:space="preserve">White alone (Non-Hispanic)</t>
   </si>
   <si>
-    <t xml:space="preserve">NHPI alone</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hispanic of any race</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black or African American alone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIAN alone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFI80</t>
   </si>
 </sst>
 </file>
@@ -399,363 +392,83 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.129323219328632</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+        <v>0.366331561691147</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.185791289239473</v>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>0.179363957587941</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.137027864377012</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+        <v>0.16543510553105</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0989265501950209</v>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>0.127232191189872</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.14855170380461</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
+        <v>0.343029000002767</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.162943806004313</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>0.18260515031867</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.175763441205388</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
+        <v>0.237172722771891</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.141007755664987</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>0.182784902034779</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.265652358843769</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
+        <v>0.187839762078013</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.132864924281754</v>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>0.180828762293744</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>0.293914231147193</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
+        <v>0.242113287327827</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.158391660382395</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.31230404830339</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.390861456595291</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.442718083919293</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.485928116534977</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.580463137447247</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.623177154779285</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.16543510553105</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.187839762078013</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.237172722771891</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.242113287327827</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.343029000002767</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.366331561691147</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.391593846915943</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.501533448653511</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.560965380471658</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.606967560617278</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.688577956325751</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.731486808518561</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
+        <v>0.206462612907056</v>
       </c>
     </row>
   </sheetData>
